--- a/PastaDocumentos/Orcamento.xlsx
+++ b/PastaDocumentos/Orcamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logonrmlocal\Downloads\ExemploGIT\ExemploGit-2024\PastaDocumentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CDD37F-6337-4CD5-9FD7-1D3080DD787F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1746F9D8-94AA-46E6-945E-985FB7D0AB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Gastos</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Telefonia</t>
+  </si>
+  <si>
+    <t>Refeição</t>
   </si>
 </sst>
 </file>
@@ -216,11 +219,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D5FD4134-95AA-45B2-81B5-37B67F04ACE2}" name="Table1" displayName="Table1" ref="B3:D8" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3" dataCellStyle="Currency">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D5FD4134-95AA-45B2-81B5-37B67F04ACE2}" name="Table1" displayName="Table1" ref="B3:D8" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" dataCellStyle="Currency">
   <autoFilter ref="B3:D8" xr:uid="{D5FD4134-95AA-45B2-81B5-37B67F04ACE2}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{7FED1017-A773-424B-A746-DDEE880AD02A}" name="Receitas" dataDxfId="1" dataCellStyle="Currency"/>
-    <tableColumn id="2" xr3:uid="{201CE0B7-C5F1-44B0-99CA-5270BBDCB146}" name="Gastos" dataDxfId="4" dataCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{7FED1017-A773-424B-A746-DDEE880AD02A}" name="Receitas" dataDxfId="2" dataCellStyle="Currency"/>
+    <tableColumn id="2" xr3:uid="{201CE0B7-C5F1-44B0-99CA-5270BBDCB146}" name="Gastos" dataDxfId="1" dataCellStyle="Currency"/>
     <tableColumn id="3" xr3:uid="{F09212A8-7F0E-4C01-BD64-EAC771789AAC}" name="Lucro" dataDxfId="0" dataCellStyle="Currency">
       <calculatedColumnFormula>Table1[[#This Row],[Receitas]]-Table1[[#This Row],[Gastos]]</calculatedColumnFormula>
     </tableColumn>
@@ -495,7 +498,7 @@
   <dimension ref="A3:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,33 +550,34 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
       <c r="B6" s="2">
-        <v>210000</v>
-      </c>
-      <c r="C6" s="2"/>
+        <v>30000</v>
+      </c>
+      <c r="C6" s="2">
+        <v>21000</v>
+      </c>
       <c r="D6" s="2">
         <f>Table1[[#This Row],[Receitas]]-Table1[[#This Row],[Gastos]]</f>
-        <v>210000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B7" s="2">
-        <v>500000</v>
-      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2">
         <f>Table1[[#This Row],[Receitas]]-Table1[[#This Row],[Gastos]]</f>
-        <v>500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B8" s="2">
-        <v>500000</v>
-      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
         <f>Table1[[#This Row],[Receitas]]-Table1[[#This Row],[Gastos]]</f>
-        <v>500000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
